--- a/xlsx/nor_oda_hum_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_tenyear.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.9115252120086681</v>
+        <v>0.911525228329493</v>
       </c>
     </row>
     <row r="4">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.097679191517659</v>
+        <v>1.097679192626875</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>1.28430812317394</v>
+        <v>1.284308120980772</v>
       </c>
     </row>
     <row r="8">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>1.293211491719622</v>
+        <v>1.293211476697314</v>
       </c>
     </row>
     <row r="10">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.466173844402598</v>
+        <v>1.466173807921144</v>
       </c>
     </row>
     <row r="12">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.516911334336827</v>
+        <v>1.516911319923368</v>
       </c>
     </row>
     <row r="14">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.527664629283016</v>
+        <v>1.527664643031689</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>2.294128223927679</v>
+        <v>2.294128230814659</v>
       </c>
     </row>
     <row r="18">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>2.138742200287144</v>
+        <v>2.138742212835601</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2.321038823261397</v>
+        <v>2.213206507212393</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_hum_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata viser data for Bistand til nødhjelp, 2014-2023 fordelt på Øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfanene Figurdata viser data for Bistand til nødhjelp, 2015-2024 fordelt på Øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,12 +412,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.829708587932</v>
+        <v>3.216773673866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -425,12 +425,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.911525228329493</v>
+        <v>1.097679192626875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -438,12 +438,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>3.216773673866</v>
+        <v>3.867567107313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -451,12 +451,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.097679192626875</v>
+        <v>1.284308120980772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>3.867567107313</v>
+        <v>4.544315595878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>1.284308120980772</v>
+        <v>1.293211476697314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>4.544315595878</v>
+        <v>4.289667902847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>1.293211476697314</v>
+        <v>1.466173807921144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>4.289667902847</v>
+        <v>4.651743918285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.466173807921144</v>
+        <v>1.516911319923368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>4.651743918285</v>
+        <v>4.434908398140999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.516911319923368</v>
+        <v>1.527664643031689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.434908398140999</v>
+        <v>4.577908119759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.527664643031689</v>
+        <v>2.294128230814659</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>4.577908119759</v>
+        <v>6.321418695656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>2.294128230814659</v>
+        <v>2.138742212835601</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>6.321418695656</v>
+        <v>10.000119022077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>2.138742212835601</v>
+        <v>2.213206507212393</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>10.000119022077</v>
+        <v>8.034886321351999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2.213206507212393</v>
+        <v>2.13600706971608</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_hum_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata viser data for Bistand til nødhjelp, 2015-2024 fordelt på Øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfanene Figurdata viser data for Bistand til nødhjelp, 2015-2024 fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_hum_tenyear.xlsx
+++ b/xlsx/nor_oda_hum_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata viser data for Bistand til nødhjelp, 2015-2024 fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfanene Figurdata inneholder data om norsk bistand til nødhjelp. 2015-2024. Fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
